--- a/biology/Zoologie/Guêpe_fouisseuse/Guêpe_fouisseuse.xlsx
+++ b/biology/Zoologie/Guêpe_fouisseuse/Guêpe_fouisseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApe_fouisseuse</t>
+          <t>Guêpe_fouisseuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression vernaculaire Guêpe fouisseuse désigne diverses espèces de guêpes solitaires dont le point commun est de creuser des terriers où leurs larves seront nourries.
 Ces espèces creusent des cavités dans des sols de natures diverses, en ramollissant celui-ci avec de l'eau régurgitée, certaines espèces exploitant les sols friables ne regurgitant pas d'eau. Quelques-unes utilisent la terre issue du creusement pour construire des cheminées temporaires au-dessus de leur trou d'entrée.
